--- a/biology/Médecine/Adipomètre/Adipomètre.xlsx
+++ b/biology/Médecine/Adipomètre/Adipomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adipom%C3%A8tre</t>
+          <t>Adipomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Un adipomètre est un appareil permettant de mesurer le pourcentage de graisse à partir de l'épaisseur de plis cutanés. C'est une pince ou un compas spécial de type harpenden[1]. Il mesure six plis cutanés, qui sont, de haut en bas : pli sub-scapulaire, pli bicipital, pli tricipital, pli abdominal, pli supra-iliaque et pli crural. Plusieurs auteurs ont proposé des équations de régression pour calculer la masse grasse afin de déterminer l'indice de masse grasse : Durnin et Carter pour l’adulte ; Brook pour l’enfant ; Carter en fonction du sexe :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Un adipomètre est un appareil permettant de mesurer le pourcentage de graisse à partir de l'épaisseur de plis cutanés. C'est une pince ou un compas spécial de type harpenden. Il mesure six plis cutanés, qui sont, de haut en bas : pli sub-scapulaire, pli bicipital, pli tricipital, pli abdominal, pli supra-iliaque et pli crural. Plusieurs auteurs ont proposé des équations de régression pour calculer la masse grasse afin de déterminer l'indice de masse grasse : Durnin et Carter pour l’adulte ; Brook pour l’enfant ; Carter en fonction du sexe :
 pour les hommes : %MG = (somme des six plis × 0,1051) + 2,585. Norme entre 10 % et 25 % ;
 pour les femmes : %MG = (somme des six plis × 0,1548) + 3,58. Norme entre 15 % et 30 % ;</t>
         </is>
